--- a/doc/import/classes_template.xlsx
+++ b/doc/import/classes_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,23 +59,125 @@
     <t>初1-8班</t>
   </si>
   <si>
-    <t>初1-9班</t>
-  </si>
-  <si>
-    <t>初1-10班</t>
-  </si>
-  <si>
-    <t>初1-11班</t>
-  </si>
-  <si>
-    <t>初1-12班</t>
+    <t>班级编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初2-1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初2-2班</t>
+  </si>
+  <si>
+    <t>初2-3班</t>
+  </si>
+  <si>
+    <t>初2-4班</t>
+  </si>
+  <si>
+    <t>初2-5班</t>
+  </si>
+  <si>
+    <t>初2-6班</t>
+  </si>
+  <si>
+    <t>初2-7班</t>
+  </si>
+  <si>
+    <t>初2-8班</t>
+  </si>
+  <si>
+    <t>七中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一中模拟150人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岷江东路学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德阳八中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金沙江路学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高新区通威中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德阳九中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一中模拟151人</t>
+  </si>
+  <si>
+    <t>德阳十中</t>
+  </si>
+  <si>
+    <t>柏隆初中</t>
+  </si>
+  <si>
+    <t>扬嘉镇千秋中学</t>
+  </si>
+  <si>
+    <t>景福初中</t>
+  </si>
+  <si>
+    <t>寿丰初中</t>
+  </si>
+  <si>
+    <t>新中初中</t>
+  </si>
+  <si>
+    <t>双东初中</t>
+  </si>
+  <si>
+    <t>通江初中</t>
+  </si>
+  <si>
+    <t>和新初中</t>
+  </si>
+  <si>
+    <t>黄许初中</t>
+  </si>
+  <si>
+    <t>袁家初中</t>
+  </si>
+  <si>
+    <t>东泰初中</t>
+  </si>
+  <si>
+    <t>孟家初中</t>
+  </si>
+  <si>
+    <t>德新初中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +192,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,10 +222,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -419,15 +532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,11 +558,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>81</v>
-      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>550103</v>
       </c>
@@ -454,8 +575,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>5501030101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>550103</v>
       </c>
@@ -465,8 +592,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>5501030102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>550103</v>
       </c>
@@ -476,8 +609,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>5501030103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>550103</v>
       </c>
@@ -487,8 +626,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>5501030104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>550103</v>
       </c>
@@ -498,8 +643,14 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>5501030105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>550103</v>
       </c>
@@ -509,8 +660,14 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>5501030106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>550103</v>
       </c>
@@ -520,8 +677,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>5501030107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>550103</v>
       </c>
@@ -531,54 +694,901 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>5501030108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>550103</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5501030201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>550103</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5501030202</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>550103</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>5501030203</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>550103</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5501030204</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>550103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>5501030205</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>550103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>5501030206</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>550103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>5501030207</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>550103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>5501030208</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>550101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>5501010101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>550101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>5501010201</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>550102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>5501020101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>550102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>5501020201</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="1">
+        <v>550104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5501040101</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="1">
+        <v>550104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5501040201</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>550105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>5501050101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>550105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>5501050201</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>550107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>5501070101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>550107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>5501070201</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>550108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>5501080101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>550108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>5501080201</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>550109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>5501090101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>550109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>5501090201</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>550110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5501100101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>550110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>5501100201</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>550111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5501110101</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>550111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5501110201</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
+        <v>550113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5501130101</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
+        <v>550113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5501130201</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
+        <v>550114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5501140101</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
+        <v>550114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5501140201</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
+        <v>550115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5501150101</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
+        <v>550115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5501150201</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
+        <v>550116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5501160101</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
+        <v>550116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5501160201</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
+        <v>550117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5501170101</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
+        <v>550117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5501170201</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
+        <v>550118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5501180101</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
+        <v>550118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5501180201</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
+        <v>550119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5501190101</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
+        <v>550119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5501190201</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
+        <v>550120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>5501200101</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
+        <v>550120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5501200201</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
+        <v>550121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5501210101</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
+        <v>550121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5501210201</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
+        <v>550122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5501220101</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="3">
+        <v>550122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>5501220201</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="3">
+        <v>550123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>5501230101</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="3">
+        <v>550123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5501230201</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="3">
+        <v>550124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5501240101</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="3">
+        <v>550124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5501240201</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="3">
+        <v>550125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5501250101</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="3">
+        <v>550125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5501250201</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/import/classes_template.xlsx
+++ b/doc/import/classes_template.xlsx
@@ -540,7 +540,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
